--- a/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
+++ b/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="First file" sheetId="2" r:id="rId1"/>
     <sheet name="Second File Coffee" sheetId="6" r:id="rId2"/>
     <sheet name="JS2" sheetId="4" r:id="rId3"/>
-    <sheet name="Query" sheetId="3" r:id="rId4"/>
-    <sheet name="JS Tax 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Testing functions alone" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Query" sheetId="3" r:id="rId5"/>
+    <sheet name="JS Tax 2" sheetId="5" r:id="rId6"/>
+    <sheet name="Testing functions alone" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2852,6 +2853,1652 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531733</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13333333" cy="6571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2856103" cy="10612136"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12925425" y="123825"/>
+          <a:ext cx="2856103" cy="10612136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>header </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#00d6b2;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>42px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>block;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    text-align</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>left;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#img </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>float</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>left;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-container </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-template-columns</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-template-rows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100px 100px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-gap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    padding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-container </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text-align</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>center;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    padding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px 0;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#00d6b2;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#button1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#33b5e5;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#startButton </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#bbbbbb;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#b94a48;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#taxable, #taxOwed </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    border</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1px solid black;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#bbbbbb;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#item,#deductions </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>border</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1px solid black;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#results </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-column</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>span 3;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341562</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
+          <a:ext cx="10704762" cy="8466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379505</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>113771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15887700"/>
+          <a:ext cx="11961905" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3154,7 +4801,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3329,7 +4976,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3485,7 +5132,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3878,7 +5525,7 @@
   <dimension ref="E24:H103"/>
   <sheetViews>
     <sheetView topLeftCell="B114" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -3933,7 +5580,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -3944,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3959,11 +5621,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -3974,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
+++ b/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First file" sheetId="2" r:id="rId1"/>
     <sheet name="Second File Coffee" sheetId="6" r:id="rId2"/>
     <sheet name="JS2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Grade Calc" sheetId="9" r:id="rId4"/>
     <sheet name="Query" sheetId="3" r:id="rId5"/>
     <sheet name="JS Tax 2" sheetId="5" r:id="rId6"/>
     <sheet name="Testing functions alone" sheetId="7" r:id="rId7"/>
@@ -1645,15 +1645,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504229</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256579</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>182423</xdr:rowOff>
+      <xdr:rowOff>39548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,8 +1676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9875520"/>
-          <a:ext cx="4771429" cy="3657143"/>
+          <a:off x="361950" y="10144125"/>
+          <a:ext cx="4771429" cy="3801923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5550,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -5580,8 +5580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -5625,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
+++ b/CSC3510 S2021/Lectures/05 JS Intro-review.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="First file" sheetId="2" r:id="rId1"/>
     <sheet name="Second File Coffee" sheetId="6" r:id="rId2"/>
     <sheet name="JS2" sheetId="4" r:id="rId3"/>
     <sheet name="Grade Calc" sheetId="9" r:id="rId4"/>
-    <sheet name="Query" sheetId="3" r:id="rId5"/>
-    <sheet name="JS Tax 2" sheetId="5" r:id="rId6"/>
-    <sheet name="Testing functions alone" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="Query" sheetId="3" r:id="rId6"/>
+    <sheet name="JS Tax 2" sheetId="5" r:id="rId7"/>
+    <sheet name="Testing functions alone" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="gradeCalc2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -5225,6 +5227,5498 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6087564" cy="12146274"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="180975"/>
+          <a:ext cx="6087564" cy="12146274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Grades {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= []</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    gradeListNum </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= []</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    errorString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"";</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    gotError </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>false;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    aver </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    constructor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( gList ){</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= gList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`gListString=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradesOK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get gListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>() { </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>() { </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get getErrorString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>() { </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradesOK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(){</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>length; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i++ )  {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>isNaN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i]) ) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>+= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`index:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${i}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> number:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i]}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is Invalid`;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gotError </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                continue;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parseFloat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i] ) &lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>+= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`index:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${i}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> number:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i]}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is Negative`;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i] = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parseFloat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i])</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`allGradesOK gListN=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i]}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`error=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>calcAver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>() {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>sum = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>length; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>i++ ) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>            sum += </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`sum:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${sum}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> l:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>length</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aver </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= sum/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gradeListNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>length;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function calcGrades</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>() {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>gList  = []</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>gList[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>] = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"g1"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>gList[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>] = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"g2"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>gList[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>] = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"g3"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //console.log( `graades=${grades}`);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>g = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Grades( gList )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>( g.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>oStr = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`&lt;span style='color:red'&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${g.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>errorString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;/span&gt;`;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>r = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"results"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>innerHTML </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= oStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>        g.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>calcAver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>oStr = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>`&lt;span style='color:black'&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>${g.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;/span&gt;`;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        let </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>r = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"results"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>innerHTML </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>= oStr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2474716" cy="9063250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="361950"/>
+          <a:ext cx="2474716" cy="9063250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>header </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#00d6b2;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>42px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>block;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    text-align</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>left;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#img </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>float</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>left;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-container </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-template-columns</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-template-rows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100px 100px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    grid-gap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    padding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-container </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text-align</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>center;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    padding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px 0;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>30px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#00d6b2;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#button1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#33b5e5;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#startButton </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#bbbbbb;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#b94a48;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#taxable, #taxOwed </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>height</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    border</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1px solid black;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    background-color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#bbbbbb;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    font-size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>19px;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#item,#deductions </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>border</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1px solid black;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#results </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grid-column</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>span 3;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4983672" cy="4570225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144125" y="276225"/>
+          <a:ext cx="4983672" cy="4570225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!DOCTYPE html&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;html lang="en"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;meta charset="UTF-8"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;title&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/title&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;link rel="stylesheet" type="text/css" href="css/gradeStyles.css"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;script src="js/gradeCalc.js"&gt; &lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;header&gt; &lt;img src="img/calc.jpg" id="img"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Grade Calculator </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/header&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Enter Grades:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div class="grid-container"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="gradeLabel"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>G1: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="grade"&gt; &lt;input type="number" id="g1" min="-10" max="100"&gt; &lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="gradeLabel"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>G2: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="grade"&gt; &lt;input type="number" id="g2" min="-10" max="100"&gt; &lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="gradeLabel"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>G3: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;div class="grade"&gt; &lt;input type="number" id="g3" min="-10" max="100"&gt; &lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;button type="button" id="getCost" onClick="calcGrades()"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Calc GPA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/button&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div id="results"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Cost </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;span id="gpa"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/span&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/html&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5546,6 +11040,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -5580,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5592,6 +11101,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5606,27 +11127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,4 +11155,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>